--- a/www/IndicatorsPerCountry/Myanmar_GDPperCapita_TerritorialRef_1948_2012_CCode_104.xlsx
+++ b/www/IndicatorsPerCountry/Myanmar_GDPperCapita_TerritorialRef_1948_2012_CCode_104.xlsx
@@ -276,13 +276,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Myanmar_GDPperCapita_TerritorialRef_1948_2012_CCode_104.xlsx
+++ b/www/IndicatorsPerCountry/Myanmar_GDPperCapita_TerritorialRef_1948_2012_CCode_104.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="96">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,217 +36,235 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>504</t>
+    <t>803</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>699</t>
-  </si>
-  <si>
-    <t>566</t>
-  </si>
-  <si>
-    <t>607</t>
-  </si>
-  <si>
-    <t>685</t>
-  </si>
-  <si>
-    <t>823</t>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>902</t>
+  </si>
+  <si>
+    <t>968</t>
+  </si>
+  <si>
+    <t>1092</t>
+  </si>
+  <si>
+    <t>1312</t>
+  </si>
+  <si>
+    <t>1133</t>
+  </si>
+  <si>
+    <t>1298</t>
+  </si>
+  <si>
+    <t>1438</t>
+  </si>
+  <si>
+    <t>1336</t>
+  </si>
+  <si>
+    <t>1180</t>
+  </si>
+  <si>
+    <t>631</t>
   </si>
   <si>
     <t>711</t>
   </si>
   <si>
-    <t>814</t>
-  </si>
-  <si>
-    <t>902</t>
-  </si>
-  <si>
-    <t>838</t>
-  </si>
-  <si>
-    <t>740</t>
-  </si>
-  <si>
-    <t>396</t>
-  </si>
-  <si>
-    <t>446</t>
-  </si>
-  <si>
-    <t>449</t>
-  </si>
-  <si>
-    <t>454</t>
-  </si>
-  <si>
-    <t>419</t>
-  </si>
-  <si>
-    <t>467</t>
-  </si>
-  <si>
-    <t>490</t>
-  </si>
-  <si>
-    <t>510</t>
-  </si>
-  <si>
-    <t>488</t>
-  </si>
-  <si>
-    <t>555</t>
-  </si>
-  <si>
-    <t>564</t>
-  </si>
-  <si>
-    <t>567</t>
-  </si>
-  <si>
-    <t>606</t>
-  </si>
-  <si>
-    <t>613</t>
-  </si>
-  <si>
-    <t>612</t>
-  </si>
-  <si>
-    <t>617</t>
-  </si>
-  <si>
-    <t>580</t>
-  </si>
-  <si>
-    <t>586</t>
-  </si>
-  <si>
-    <t>626</t>
-  </si>
-  <si>
-    <t>642</t>
-  </si>
-  <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>628</t>
-  </si>
-  <si>
-    <t>648</t>
-  </si>
-  <si>
-    <t>663</t>
-  </si>
-  <si>
-    <t>692</t>
-  </si>
-  <si>
-    <t>720</t>
-  </si>
-  <si>
-    <t>756</t>
+    <t>716</t>
+  </si>
+  <si>
+    <t>724</t>
+  </si>
+  <si>
+    <t>668</t>
+  </si>
+  <si>
+    <t>744</t>
+  </si>
+  <si>
+    <t>781</t>
+  </si>
+  <si>
+    <t>813</t>
   </si>
   <si>
     <t>778</t>
   </si>
   <si>
-    <t>828</t>
-  </si>
-  <si>
-    <t>859</t>
-  </si>
-  <si>
-    <t>889</t>
-  </si>
-  <si>
-    <t>910</t>
-  </si>
-  <si>
-    <t>936</t>
-  </si>
-  <si>
-    <t>945</t>
-  </si>
-  <si>
-    <t>919</t>
-  </si>
-  <si>
-    <t>867</t>
-  </si>
-  <si>
-    <t>757</t>
-  </si>
-  <si>
-    <t>774</t>
-  </si>
-  <si>
-    <t>785.719746197</t>
-  </si>
-  <si>
-    <t>767.029951943</t>
-  </si>
-  <si>
-    <t>828.831578399</t>
-  </si>
-  <si>
-    <t>865.508572362</t>
-  </si>
-  <si>
-    <t>913.439932815</t>
-  </si>
-  <si>
-    <t>959.666354637</t>
-  </si>
-  <si>
-    <t>1004.7603031</t>
-  </si>
-  <si>
-    <t>1046.11896037</t>
-  </si>
-  <si>
-    <t>1090.08368989</t>
-  </si>
-  <si>
-    <t>1192.05223133</t>
-  </si>
-  <si>
-    <t>1337.12667232</t>
-  </si>
-  <si>
-    <t>1468.92483806</t>
-  </si>
-  <si>
-    <t>1624.13125288</t>
-  </si>
-  <si>
-    <t>1825.40951886</t>
-  </si>
-  <si>
-    <t>2047.39836199</t>
-  </si>
-  <si>
-    <t>2297.16775128</t>
-  </si>
-  <si>
-    <t>2568.15625029</t>
-  </si>
-  <si>
-    <t>2843.31435785</t>
-  </si>
-  <si>
-    <t>3106.55474097</t>
-  </si>
-  <si>
-    <t>3396.95717061</t>
-  </si>
-  <si>
-    <t>3708.93917718</t>
+    <t>885</t>
+  </si>
+  <si>
+    <t>899</t>
+  </si>
+  <si>
+    <t>904</t>
+  </si>
+  <si>
+    <t>966</t>
+  </si>
+  <si>
+    <t>977</t>
+  </si>
+  <si>
+    <t>976</t>
+  </si>
+  <si>
+    <t>983</t>
+  </si>
+  <si>
+    <t>925</t>
+  </si>
+  <si>
+    <t>934</t>
+  </si>
+  <si>
+    <t>998</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>1036</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1033</t>
+  </si>
+  <si>
+    <t>1057</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>1148</t>
+  </si>
+  <si>
+    <t>1205</t>
+  </si>
+  <si>
+    <t>1240</t>
+  </si>
+  <si>
+    <t>1320</t>
+  </si>
+  <si>
+    <t>1369</t>
+  </si>
+  <si>
+    <t>1417</t>
+  </si>
+  <si>
+    <t>1451</t>
+  </si>
+  <si>
+    <t>1492</t>
+  </si>
+  <si>
+    <t>1506</t>
+  </si>
+  <si>
+    <t>1465</t>
+  </si>
+  <si>
+    <t>1382</t>
+  </si>
+  <si>
+    <t>1207</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>1253</t>
+  </si>
+  <si>
+    <t>1205.07146138499</t>
+  </si>
+  <si>
+    <t>1283.82548302487</t>
+  </si>
+  <si>
+    <t>1321.81019355356</t>
+  </si>
+  <si>
+    <t>1373.96288657968</t>
+  </si>
+  <si>
+    <t>1423.65048507669</t>
+  </si>
+  <si>
+    <t>1469.03173707452</t>
+  </si>
+  <si>
+    <t>1505.98046383745</t>
+  </si>
+  <si>
+    <t>1547.02833973273</t>
+  </si>
+  <si>
+    <t>1667.66122635631</t>
+  </si>
+  <si>
+    <t>1843.494517528</t>
+  </si>
+  <si>
+    <t>1996.37368678253</t>
+  </si>
+  <si>
+    <t>2175.88343276733</t>
+  </si>
+  <si>
+    <t>2410.56976205422</t>
+  </si>
+  <si>
+    <t>2664.94125386245</t>
+  </si>
+  <si>
+    <t>2947.0989157759</t>
+  </si>
+  <si>
+    <t>3246.69342175902</t>
+  </si>
+  <si>
+    <t>3542.58842689859</t>
+  </si>
+  <si>
+    <t>3585.76522166707</t>
+  </si>
+  <si>
+    <t>3673.43665669723</t>
+  </si>
+  <si>
+    <t>3772.99854122546</t>
+  </si>
+  <si>
+    <t>3884</t>
+  </si>
+  <si>
+    <t>4124</t>
+  </si>
+  <si>
+    <t>4424</t>
+  </si>
+  <si>
+    <t>4728</t>
+  </si>
+  <si>
+    <t>5021</t>
+  </si>
+  <si>
+    <t>5284</t>
   </si>
   <si>
     <t>Description</t>
@@ -3597,6 +3615,108 @@
         <v>77</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3612,50 +3732,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
